--- a/Application/Assests/MailingDetails.xlsx
+++ b/Application/Assests/MailingDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\awpa\Application\Assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EFFAA4-2C75-4840-B578-6DA3D210088F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EDF409-9935-4612-BFD6-DD2C6AB71C6C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F792A7CD-917D-4E09-9F68-073F3EEA5488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>File Name</t>
   </si>
@@ -36,22 +36,25 @@
     <t>CC</t>
   </si>
   <si>
+    <t>ganesh.m635@gmail.com</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PDS2</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>PQT</t>
+  </si>
+  <si>
     <t>ganesh.m2014@kgkite.ac.in</t>
-  </si>
-  <si>
-    <t>ganesh.m635@gmail.com</t>
-  </si>
-  <si>
-    <t>2_6_cse_a.xlsx</t>
-  </si>
-  <si>
-    <t>2_6_cse_b.xlsx</t>
-  </si>
-  <si>
-    <t>3_6_ece_a.xlsx</t>
-  </si>
-  <si>
-    <t>3_6_ece_b.xlsx</t>
   </si>
 </sst>
 </file>
@@ -414,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEA3841-27CF-497F-B119-CB3C1C7EE0C5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -440,54 +443,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F05AEBD6-C6A3-4F6E-BAC7-C877FBCF6084}"/>
-    <hyperlink ref="B3:B5" r:id="rId2" display="ganesh.m2014@kgkite.ac.in" xr:uid="{2015DBE2-63E9-4826-8321-93D29BCC7607}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{C7DACB30-2D16-48F7-88E2-33D73D8486FD}"/>
-    <hyperlink ref="C3:C5" r:id="rId4" display="ganesh.m635@gmail.com" xr:uid="{2853ED2D-2A36-4C48-ACA5-B29206287984}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C7DACB30-2D16-48F7-88E2-33D73D8486FD}"/>
+    <hyperlink ref="C3:C6" r:id="rId3" display="ganesh.m635@gmail.com" xr:uid="{D348CE1D-B18A-4189-9BC7-4BFF7208836D}"/>
+    <hyperlink ref="B3:B6" r:id="rId4" display="ganesh.m2014@kgkite.ac.in" xr:uid="{2BE6C195-DE00-4B97-832C-00408AB5C120}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
